--- a/translations/VIE/site-ui-strings_VIE.xlsx
+++ b/translations/VIE/site-ui-strings_VIE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soukc\Documents\PROJECTS\91709\91709 - 04 Layout\VIE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinda/seattle-ready/translations/VIE/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>English</t>
   </si>
@@ -387,17 +387,49 @@
   </si>
   <si>
     <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Cập nhật</t>
+  </si>
+  <si>
+    <t>Results for this location…</t>
+  </si>
+  <si>
+    <t>Kết quả cho địa điểm này…</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ</t>
+  </si>
+  <si>
+    <t>Your address, your city</t>
+  </si>
+  <si>
+    <t>Địa chỉ, thành phố của bạn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,6 +454,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -441,16 +479,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -466,21 +504,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,23 +801,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="75.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="75.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="75.625" style="7"/>
-    <col min="3" max="16384" width="75.625" style="1"/>
+    <col min="1" max="1" width="75.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" style="7"/>
+    <col min="3" max="16384" width="75.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -785,7 +825,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -793,7 +833,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -801,7 +841,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -809,7 +849,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -817,7 +857,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -825,7 +865,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -833,7 +873,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -841,7 +881,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -849,7 +889,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -857,7 +897,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -865,7 +905,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -873,7 +913,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -881,7 +921,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -889,7 +929,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -897,7 +937,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -905,7 +945,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -913,7 +953,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -921,7 +961,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -929,7 +969,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -937,7 +977,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -945,7 +985,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -953,7 +993,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -961,7 +1001,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -969,7 +1009,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -977,7 +1017,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -985,7 +1025,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -993,7 +1033,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1001,7 +1041,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
@@ -1009,7 +1049,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
@@ -1017,7 +1057,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -1025,7 +1065,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
@@ -1033,7 +1073,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
@@ -1041,7 +1081,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
@@ -1049,7 +1089,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -1057,7 +1097,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -1065,7 +1105,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1073,7 +1113,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -1081,7 +1121,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1089,7 +1129,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
@@ -1097,7 +1137,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
@@ -1105,7 +1145,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
@@ -1113,7 +1153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -1121,7 +1161,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -1129,7 +1169,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
@@ -1137,7 +1177,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
@@ -1145,7 +1185,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
@@ -1153,7 +1193,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -1161,7 +1201,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
@@ -1169,7 +1209,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -1177,7 +1217,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
@@ -1185,7 +1225,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
@@ -1193,7 +1233,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
@@ -1201,7 +1241,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
@@ -1209,7 +1249,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
@@ -1217,7 +1257,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
@@ -1225,7 +1265,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
@@ -1233,7 +1273,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
@@ -1241,7 +1281,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
@@ -1249,21 +1289,52 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>118</v>
       </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="75" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/translations/VIE/site-ui-strings_VIE.xlsx
+++ b/translations/VIE/site-ui-strings_VIE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>English</t>
   </si>
@@ -395,9 +395,6 @@
     <t>Cập nhật</t>
   </si>
   <si>
-    <t>Results for this location…</t>
-  </si>
-  <si>
     <t>Kết quả cho địa điểm này…</t>
   </si>
   <si>
@@ -411,20 +408,28 @@
   </si>
   <si>
     <t>Địa chỉ, thành phố của bạn</t>
+  </si>
+  <si>
+    <t>Results for this location</t>
+  </si>
+  <si>
+    <t>What to Expect at This Location</t>
+  </si>
+  <si>
+    <t>Điều Gì Có Thể Xảy Ra tại Địa Điểm Này</t>
+  </si>
+  <si>
+    <t>Getting results for your location…</t>
+  </si>
+  <si>
+    <t>Xem kết quả cho địa điểm của bạn…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -453,12 +458,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -496,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -504,23 +503,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,10 +801,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:B65"/>
+      <selection activeCell="A61" sqref="A61:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="75.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1298,40 +1295,52 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
+      <c r="A61" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="9" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
+      <c r="B63" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="9" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
+      <c r="B64" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="9"/>
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/translations/VIE/site-ui-strings_VIE.xlsx
+++ b/translations/VIE/site-ui-strings_VIE.xlsx
@@ -395,9 +395,6 @@
     <t>Cập nhật</t>
   </si>
   <si>
-    <t>Kết quả cho địa điểm này…</t>
-  </si>
-  <si>
     <t>Language</t>
   </si>
   <si>
@@ -423,6 +420,9 @@
   </si>
   <si>
     <t>Xem kết quả cho địa điểm của bạn…</t>
+  </si>
+  <si>
+    <t>Kết quả cho địa điểm này</t>
   </si>
 </sst>
 </file>
@@ -804,7 +804,7 @@
   <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:B66"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="75.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1304,42 +1304,42 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
         <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
         <v>125</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
         <v>128</v>
-      </c>
-      <c r="B65" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
         <v>130</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
